--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kboug\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC43284-6A33-427A-BD03-4AB88A33CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A7858-0EEF-4D85-9192-04B8E9C45B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -97,9 +97,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +137,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -243,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A7858-0EEF-4D85-9192-04B8E9C45B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39FF249-894E-4A1D-89BC-6E716D56A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39FF249-894E-4A1D-89BC-6E716D56A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE3D98F-7543-4687-9542-C4192F49A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
+    <workbookView xWindow="2856" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE3D98F-7543-4687-9542-C4192F49A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB92B62-74F9-45FF-BB45-855883A6C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB92B62-74F9-45FF-BB45-855883A6C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED1B76-7C6B-41A0-8179-56470F90916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -430,7 +430,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED1B76-7C6B-41A0-8179-56470F90916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFCAEEB-1370-48E0-9FA1-8632AFA5691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFCAEEB-1370-48E0-9FA1-8632AFA5691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B9EC5-C7C6-4A15-AA5A-874B56F534FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B9EC5-C7C6-4A15-AA5A-874B56F534FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F549E33E-54B0-4DE9-AB12-E875A2B990D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F549E33E-54B0-4DE9-AB12-E875A2B990D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00272E25-74D3-4699-9667-5BDF926D31DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00272E25-74D3-4699-9667-5BDF926D31DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA209A3-8ACA-414F-BE4D-C8D129CCF6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA209A3-8ACA-414F-BE4D-C8D129CCF6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ADA110-AD88-4149-98A1-4AF2370AB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ADA110-AD88-4149-98A1-4AF2370AB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EA4A3-089D-4BA6-B0A2-DA96710D8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EA4A3-089D-4BA6-B0A2-DA96710D8D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCE241-1D83-4954-B058-775A255BA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCE241-1D83-4954-B058-775A255BA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3051147-0DD5-43D7-AF57-A5C517CAD6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3051147-0DD5-43D7-AF57-A5C517CAD6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEBA7F-6E34-4376-AE19-71C3D3FA10B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>184</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BEBA7F-6E34-4376-AE19-71C3D3FA10B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5552E43-7447-48FA-B07A-DBEFE07AF61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5552E43-7447-48FA-B07A-DBEFE07AF61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257756D6-8FE8-4D24-843B-DFB0A7EE86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -414,7 +414,7 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -422,7 +422,7 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -430,7 +430,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257756D6-8FE8-4D24-843B-DFB0A7EE86F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E616449-678C-4471-8129-EAC7B02882E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -430,7 +430,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -438,7 +438,7 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>248</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E616449-678C-4471-8129-EAC7B02882E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357A56C-284F-4AD8-842C-56CFC241EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357A56C-284F-4AD8-842C-56CFC241EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D9957A-9D62-4497-A48E-637A9DC4F52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D9957A-9D62-4497-A48E-637A9DC4F52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C26DE1-4796-421E-952F-17C5525421AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C26DE1-4796-421E-952F-17C5525421AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FDE3F2-F6D7-48DB-8BB9-B64182CABA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>391</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FDE3F2-F6D7-48DB-8BB9-B64182CABA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A00E5F-06FB-4316-9010-39E2904799A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AFBECF-791D-4ECD-965A-6DCA74ED537A}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,15 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>520</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2025</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A00E5F-06FB-4316-9010-39E2904799A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B28310-7D17-4E71-936F-848EFB120B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +414,7 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -422,7 +422,7 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -438,7 +438,7 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B28310-7D17-4E71-936F-848EFB120B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02F748-8754-49B4-A59C-A36368031ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,7 +438,7 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02F748-8754-49B4-A59C-A36368031ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87261E4A-8A08-4BCF-9CF4-F40F8B41A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>327</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87261E4A-8A08-4BCF-9CF4-F40F8B41A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639AE1C0-5582-40E3-95BF-D513DBBDABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>519</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639AE1C0-5582-40E3-95BF-D513DBBDABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3F524-478D-44BB-B339-F681DA65C5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C3F524-478D-44BB-B339-F681DA65C5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9FEA5-6EC5-4C54-ACFE-0A7B459DB673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -462,7 +462,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>638</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/data/citations.xlsx
+++ b/data/citations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\mypage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE9FEA5-6EC5-4C54-ACFE-0A7B459DB673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA396295-D3C7-432F-AC6B-82BA70DE3513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17B597CE-232D-4308-99D8-B4DFDA51F2A3}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AFBECF-791D-4ECD-965A-6DCA74ED537A}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>2023</v>
       </c>
       <c r="B7">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +470,15 @@
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>659</v>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2026</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
